--- a/summary/sppb-psat-finish-2021-11.xlsx
+++ b/summary/sppb-psat-finish-2021-11.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>kode pengajuan</t>
   </si>
@@ -34,24 +34,6 @@
     <t>masa berlaku</t>
   </si>
   <si>
-    <t>permohonan/16/sppb</t>
-  </si>
-  <si>
-    <t>Contoh</t>
-  </si>
-  <si>
-    <t>Dokumen Ditolak</t>
-  </si>
-  <si>
-    <t>PERMOHONAN</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
     <t>perpanjangan/12/sppb</t>
   </si>
   <si>
@@ -64,13 +46,22 @@
     <t>PERPANJANGAN</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
     <t>AB111121</t>
   </si>
   <si>
     <t>Sat Jan 08 2022 00:00:00 GMT+0800 (Taipei Standard Time)</t>
   </si>
   <si>
-    <t>permohonan/1/sppb</t>
+    <t>Thu Nov 11 2021 01:37:10 GMT+0800 (Taipei Standard Time)</t>
+  </si>
+  <si>
+    <t>Fri Dec 24 2021 13:48:25 GMT+0800 (Taipei Standard Time)</t>
   </si>
 </sst>
 </file>
@@ -110,7 +101,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -139,7 +130,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:10">
       <c r="A2" s="0" t="s">
         <v>7</v>
       </c>
@@ -159,62 +150,16 @@
         <v>12</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="I2" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="J2" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
